--- a/Data/aearep-89/candidatepackages.xlsx
+++ b/Data/aearep-89/candidatepackages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="104">
   <si>
     <t>(Potential) missing package found</t>
   </si>
@@ -31,12 +31,12 @@
     <t>diff</t>
   </si>
   <si>
+    <t>binscatter</t>
+  </si>
+  <si>
     <t>center</t>
   </si>
   <si>
-    <t>binscatter</t>
-  </si>
-  <si>
     <t>parmest</t>
   </si>
   <si>
@@ -272,9 +272,6 @@
   </si>
   <si>
     <t>char_index.do</t>
-  </si>
-  <si>
-    <t>config.do</t>
   </si>
   <si>
     <t>copay_acsc.do</t>
@@ -394,7 +391,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -418,7 +415,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -430,7 +427,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -442,7 +439,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -454,7 +451,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -466,7 +463,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -478,7 +475,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -490,7 +487,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -502,7 +499,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -514,7 +511,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -526,10 +523,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="C13">
-        <v>0.10875331610441208</v>
+        <v>0</v>
       </c>
       <c r="D13"/>
     </row>
@@ -538,10 +535,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>385</v>
+        <v>411</v>
       </c>
       <c r="C14">
-        <v>0.12765252590179443</v>
+        <v>0.13586777448654175</v>
       </c>
       <c r="D14"/>
     </row>
@@ -550,10 +547,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>565</v>
+        <v>499</v>
       </c>
       <c r="C15">
-        <v>0.18733422458171844</v>
+        <v>0.16495867073535919</v>
       </c>
       <c r="D15"/>
     </row>
@@ -562,10 +559,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>745</v>
+        <v>712</v>
       </c>
       <c r="C16">
-        <v>0.24701590836048126</v>
+        <v>0.2353719025850296</v>
       </c>
       <c r="D16"/>
     </row>
@@ -574,10 +571,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>985</v>
+        <v>998</v>
       </c>
       <c r="C17">
-        <v>0.32659152150154114</v>
+        <v>0.32991734147071838</v>
       </c>
       <c r="D17"/>
     </row>
@@ -586,10 +583,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>1049</v>
+        <v>1101</v>
       </c>
       <c r="C18">
-        <v>0.34781166911125183</v>
+        <v>0.36396694183349609</v>
       </c>
       <c r="D18"/>
     </row>
@@ -598,10 +595,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>1621</v>
+        <v>1678</v>
       </c>
       <c r="C19">
-        <v>0.53746682405471802</v>
+        <v>0.5547107458114624</v>
       </c>
       <c r="D19"/>
     </row>
@@ -610,10 +607,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>1753</v>
+        <v>1904</v>
       </c>
       <c r="C20">
-        <v>0.5812334418296814</v>
+        <v>0.62942147254943848</v>
       </c>
       <c r="D20"/>
     </row>
@@ -622,10 +619,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>2133</v>
+        <v>1971</v>
       </c>
       <c r="C21">
-        <v>0.70722812414169312</v>
+        <v>0.65157026052474976</v>
       </c>
       <c r="D21"/>
     </row>
@@ -634,10 +631,10 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>2424</v>
+        <v>2436</v>
       </c>
       <c r="C22">
-        <v>0.80371350049972534</v>
+        <v>0.80528926849365234</v>
       </c>
       <c r="D22"/>
     </row>
@@ -647,7 +644,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B78"/>
+  <dimension ref="A1:B77"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -1266,14 +1263,6 @@
         <v>103</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="s">
-        <v>26</v>
-      </c>
-      <c r="B78" t="s">
-        <v>104</v>
-      </c>
-    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/Data/aearep-89/candidatepackages.xlsx
+++ b/Data/aearep-89/candidatepackages.xlsx
@@ -1,20 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20374"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\rschfs1x\userRS\K-Q\lr397_RS\Documents\AEA_workspace\FunPackageSearch\Statapackagesearch-scan_aearep\Data\aearep-89\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE27A12B-511D-4152-AA74-EB112681BCB3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Missing packages" sheetId="1" r:id="rId2"/>
-    <sheet name="Programs parsed" sheetId="2" r:id="rId4"/>
+    <sheet name="Missing packages" sheetId="1" r:id="rId1"/>
+    <sheet name="Programs parsed" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725" fullCalcOnLoad="true"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="104">
   <si>
     <t>(Potential) missing package found</t>
   </si>
@@ -31,12 +38,12 @@
     <t>diff</t>
   </si>
   <si>
+    <t>binscatter</t>
+  </si>
+  <si>
     <t>center</t>
   </si>
   <si>
-    <t>binscatter</t>
-  </si>
-  <si>
     <t>parmest</t>
   </si>
   <si>
@@ -272,9 +279,6 @@
   </si>
   <si>
     <t>char_index.do</t>
-  </si>
-  <si>
-    <t>config.do</t>
   </si>
   <si>
     <t>copay_acsc.do</t>
@@ -334,7 +338,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -367,15 +371,325 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -389,19 +703,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2"/>
-    </row>
-    <row r="3">
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -411,246 +727,239 @@
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3"/>
-    </row>
-    <row r="4">
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4"/>
-    </row>
-    <row r="5">
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="D5"/>
-    </row>
-    <row r="6">
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
-      <c r="D6"/>
-    </row>
-    <row r="7">
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
-      <c r="D7"/>
-    </row>
-    <row r="8">
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
-      <c r="D8"/>
-    </row>
-    <row r="9">
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
-      <c r="D9"/>
-    </row>
-    <row r="10">
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
-      <c r="D10"/>
-    </row>
-    <row r="11">
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
-      <c r="D11"/>
-    </row>
-    <row r="12">
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
-      <c r="D12"/>
-    </row>
-    <row r="13">
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="C13">
-        <v>0.10875331610441208</v>
-      </c>
-      <c r="D13"/>
-    </row>
-    <row r="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>385</v>
+        <v>411</v>
       </c>
       <c r="C14">
-        <v>0.12765252590179443</v>
-      </c>
-      <c r="D14"/>
-    </row>
-    <row r="15">
+        <v>0.13586777448654175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>565</v>
+        <v>499</v>
       </c>
       <c r="C15">
-        <v>0.18733422458171844</v>
-      </c>
-      <c r="D15"/>
-    </row>
-    <row r="16">
+        <v>0.16495867073535919</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>745</v>
+        <v>712</v>
       </c>
       <c r="C16">
-        <v>0.24701590836048126</v>
-      </c>
-      <c r="D16"/>
-    </row>
-    <row r="17">
+        <v>0.2353719025850296</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>985</v>
+        <v>998</v>
       </c>
       <c r="C17">
-        <v>0.32659152150154114</v>
-      </c>
-      <c r="D17"/>
-    </row>
-    <row r="18">
+        <v>0.32991734147071838</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>1049</v>
+        <v>1101</v>
       </c>
       <c r="C18">
-        <v>0.34781166911125183</v>
-      </c>
-      <c r="D18"/>
-    </row>
-    <row r="19">
+        <v>0.36396694183349609</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>1621</v>
+        <v>1678</v>
       </c>
       <c r="C19">
-        <v>0.53746682405471802</v>
-      </c>
-      <c r="D19"/>
-    </row>
-    <row r="20">
+        <v>0.5547107458114624</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>1753</v>
+        <v>1904</v>
       </c>
       <c r="C20">
-        <v>0.5812334418296814</v>
-      </c>
-      <c r="D20"/>
-    </row>
-    <row r="21">
+        <v>0.62942147254943848</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>2133</v>
+        <v>1971</v>
       </c>
       <c r="C21">
-        <v>0.70722812414169312</v>
-      </c>
-      <c r="D21"/>
-    </row>
-    <row r="22">
+        <v>0.65157026052474976</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>2424</v>
+        <v>2436</v>
       </c>
       <c r="C22">
-        <v>0.80371350049972534</v>
-      </c>
-      <c r="D22"/>
+        <v>0.80528926849365234</v>
+      </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B78"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B77"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -658,7 +967,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -666,7 +975,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -674,7 +983,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -682,7 +991,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -690,7 +999,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -698,7 +1007,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -706,7 +1015,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -714,7 +1023,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -722,7 +1031,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -730,7 +1039,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -738,7 +1047,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -746,7 +1055,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -754,7 +1063,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -762,7 +1071,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -770,7 +1079,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -778,7 +1087,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -786,7 +1095,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -794,7 +1103,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -802,7 +1111,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -810,7 +1119,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -818,7 +1127,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -826,7 +1135,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -834,7 +1143,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -842,7 +1151,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -850,7 +1159,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -858,7 +1167,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -866,7 +1175,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -874,7 +1183,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -882,7 +1191,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -890,7 +1199,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>26</v>
       </c>
@@ -898,7 +1207,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>26</v>
       </c>
@@ -906,7 +1215,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>26</v>
       </c>
@@ -914,7 +1223,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -922,7 +1231,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>26</v>
       </c>
@@ -930,7 +1239,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>26</v>
       </c>
@@ -938,7 +1247,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>26</v>
       </c>
@@ -946,7 +1255,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>26</v>
       </c>
@@ -954,7 +1263,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>26</v>
       </c>
@@ -962,7 +1271,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>26</v>
       </c>
@@ -970,7 +1279,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>26</v>
       </c>
@@ -978,7 +1287,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>26</v>
       </c>
@@ -986,7 +1295,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>26</v>
       </c>
@@ -994,7 +1303,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>26</v>
       </c>
@@ -1002,7 +1311,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>26</v>
       </c>
@@ -1010,7 +1319,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>26</v>
       </c>
@@ -1018,7 +1327,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>26</v>
       </c>
@@ -1026,7 +1335,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>26</v>
       </c>
@@ -1034,7 +1343,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>26</v>
       </c>
@@ -1042,7 +1351,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>26</v>
       </c>
@@ -1050,7 +1359,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>26</v>
       </c>
@@ -1058,7 +1367,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
         <v>26</v>
       </c>
@@ -1066,7 +1375,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
         <v>26</v>
       </c>
@@ -1074,7 +1383,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
         <v>26</v>
       </c>
@@ -1082,7 +1391,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>26</v>
       </c>
@@ -1090,7 +1399,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
         <v>26</v>
       </c>
@@ -1098,7 +1407,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
         <v>26</v>
       </c>
@@ -1106,7 +1415,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
         <v>26</v>
       </c>
@@ -1114,7 +1423,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
         <v>26</v>
       </c>
@@ -1122,7 +1431,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
         <v>26</v>
       </c>
@@ -1130,7 +1439,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
         <v>26</v>
       </c>
@@ -1138,7 +1447,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
         <v>26</v>
       </c>
@@ -1146,7 +1455,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
         <v>26</v>
       </c>
@@ -1154,7 +1463,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
         <v>26</v>
       </c>
@@ -1162,7 +1471,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
         <v>26</v>
       </c>
@@ -1170,7 +1479,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
         <v>26</v>
       </c>
@@ -1178,7 +1487,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
         <v>26</v>
       </c>
@@ -1186,7 +1495,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
         <v>26</v>
       </c>
@@ -1194,7 +1503,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
         <v>26</v>
       </c>
@@ -1202,7 +1511,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:2">
       <c r="A70" t="s">
         <v>26</v>
       </c>
@@ -1210,7 +1519,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:2">
       <c r="A71" t="s">
         <v>26</v>
       </c>
@@ -1218,7 +1527,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:2">
       <c r="A72" t="s">
         <v>26</v>
       </c>
@@ -1226,7 +1535,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
         <v>26</v>
       </c>
@@ -1234,7 +1543,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:2">
       <c r="A74" t="s">
         <v>26</v>
       </c>
@@ -1242,7 +1551,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:2">
       <c r="A75" t="s">
         <v>26</v>
       </c>
@@ -1250,7 +1559,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:2">
       <c r="A76" t="s">
         <v>26</v>
       </c>
@@ -1258,7 +1567,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
         <v>26</v>
       </c>
@@ -1266,14 +1575,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="s">
-        <v>26</v>
-      </c>
-      <c r="B78" t="s">
-        <v>104</v>
-      </c>
-    </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>